--- a/数据整理/stocks/A股/上证主板/601800-中国交建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601800-中国交建.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001141</t>
+          <t>005223</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利创盈灵活配置混合 - A</t>
+          <t>广发中证基建工程指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.05</t>
+          <t>25.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5009</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001142</t>
+          <t>005224</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利创盈灵活配置混合 - B</t>
+          <t>广发中证基建工程指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.05</t>
+          <t>14.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8211</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005223</t>
+          <t>165525</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数A</t>
+          <t>信诚中证基建工程指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>10.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6248</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005224</t>
+          <t>001418</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数C</t>
+          <t>泰达宏利创益灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001418</t>
+          <t>002273</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰达宏利创益灵活配置混合A</t>
+          <t>泰达宏利创益灵活配置混合B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>25.08</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.24</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>165525</t>
+          <t>001141</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>信诚中证基建工程指数（LOF）</t>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002273</t>
+          <t>001142</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰达宏利创益灵活配置混合B</t>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25.08</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008342</t>
+          <t>005223</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>九泰科鑫策略精选灵活配置混合A</t>
+          <t>广发中证基建工程指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.36</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5008</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008343</t>
+          <t>005224</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>九泰科鑫策略精选灵活配置混合C</t>
+          <t>广发中证基建工程指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>35.36</t>
+          <t>14.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7536</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -800,15 +910,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.39</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.34</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5922</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -828,15 +948,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>35.27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.28</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -856,15 +986,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>35.27</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.28</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005223</t>
+          <t>008342</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数A</t>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>35.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005224</t>
+          <t>008343</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数C</t>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>35.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601800-中国交建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601800-中国交建.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0795</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5351</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4356</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601800-中国交建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601800-中国交建.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1334,4 +1335,438 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1219</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9562</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7959</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4404</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2836</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601800-中国交建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601800-中国交建.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1769,4 +1770,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601800-中国交建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601800-中国交建.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1778,7 +1779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1789,17 +1790,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1809,14 +1830,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0553</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.77</v>
       </c>
     </row>
     <row r="3">
@@ -1825,14 +1868,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.14</v>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6138</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1841,14 +1906,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.96</v>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3597</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1857,13 +1944,949 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2549</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009031</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012216</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>52.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>65.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002023</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>65.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012217</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>52.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009032</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>38.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>38.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
         <v>3.22</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601800-中国交建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601800-中国交建.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2785,7 +2786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2796,17 +2797,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2816,14 +2837,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.96</v>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3872</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2832,14 +2875,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3000</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.77</v>
       </c>
     </row>
     <row r="4">
@@ -2848,14 +2913,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.14</v>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1337</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2864,14 +2951,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.96</v>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9492</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2880,13 +2989,1269 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9264</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>970016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6077</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011498</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4724</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4435</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2932</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1824</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>970017</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011499</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>72.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001791</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001792</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
         <v>3.22</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601800-中国交建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601800-中国交建.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4134,7 +4135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4145,17 +4146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4165,14 +4186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.14</v>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8737</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4181,14 +4224,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.96</v>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3916</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4197,14 +4262,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.77</v>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9832</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4213,14 +4300,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.14</v>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6610</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4229,14 +4338,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5711</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.96</v>
       </c>
     </row>
     <row r="7">
@@ -4245,13 +4376,791 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>36.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004948</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鑫元鑫趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012891</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004944</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鑫元鑫趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
         <v>3.22</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601800-中国交建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601800-中国交建.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>10.11</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>11.14</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>2.96</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>5.77</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>2.14</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>2.96</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
         <v>3.22</v>
       </c>
     </row>
@@ -600,6 +617,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1919</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8917</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4826</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3753</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159635</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159619</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011192</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011193</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1491,7 +2134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2839,7 +3482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3845,7 +4488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4279,7 +4922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4525,7 +5168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4847,7 +5490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601800-中国交建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601800-中国交建.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>6.48</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>10.11</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>11.14</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>2.96</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>5.77</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>2.14</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>2.96</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>7</v>
       </c>
       <c r="D9" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
         <v>3.22</v>
       </c>
     </row>
@@ -616,7 +633,915 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5009</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8211</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6248</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6397</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4508</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4451</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159619</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159635</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>970101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>970100</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>970102</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1242,7 +2167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2134,7 +3059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3482,7 +4407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4488,7 +5413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4922,7 +5847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5168,7 +6093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5488,326 +6413,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005223</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证基建工程指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.5009</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005224</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证基建工程指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8211</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>165525</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信诚中证基建工程指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.68</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6248</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001418</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰达宏利创益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>25.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0724</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002273</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰达宏利创益灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>25.08</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0724</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001141</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰达宏利创盈灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>26.05</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0652</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001142</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰达宏利创盈灵活配置混合 - B</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>26.05</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0652</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>